--- a/dandp6-inferentialstatistics/calculations.xlsx
+++ b/dandp6-inferentialstatistics/calculations.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Pre-test</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>(MeanD-D)^2</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
   </si>
 </sst>
 </file>
@@ -191,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -205,6 +211,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,7 +735,7 @@
         <v>15.555136000000006</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D19" si="1">(11.14-B3)^2</f>
+        <f t="shared" ref="D3:D15" si="1">(11.14-B3)^2</f>
         <v>1.2996000000000012</v>
       </c>
     </row>
@@ -1246,8 +1258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A6CB47B-1424-49B2-ADC1-07FB1D9B1B5A}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1640,6 +1652,21 @@
         <f t="shared" si="3"/>
         <v>33.278938064099982</v>
       </c>
+      <c r="H12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="8">
+        <f>MIN(A2:A25)</f>
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="J12" s="8">
+        <f t="shared" ref="J12:K12" si="4">MIN(B2:B25)</f>
+        <v>15.686999999999999</v>
+      </c>
+      <c r="K12" s="8">
+        <f>MIN(E2:E25)</f>
+        <v>-21.918999999999997</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -1663,6 +1690,21 @@
       <c r="F13">
         <f t="shared" si="3"/>
         <v>21.333221064100012</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="8">
+        <f>MAX(A3:A26)</f>
+        <v>22.327999999999999</v>
+      </c>
+      <c r="J13" s="8">
+        <f t="shared" ref="J13:K13" si="5">MAX(B3:B26)</f>
+        <v>35.255000000000003</v>
+      </c>
+      <c r="K13" s="8">
+        <f>MAX(E3:E26)</f>
+        <v>-1.9499999999999993</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
